--- a/go/test.xlsx
+++ b/go/test.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
@@ -97,7 +97,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b>false</b>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -138,7 +138,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b>false</b>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Arial"/>
@@ -167,7 +167,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b>false</b>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Arial"/>
@@ -175,7 +175,7 @@
       <scheme val="major"/>
     </font>
     <font>
-      <b/>
+      <b>false</b>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Arial"/>
@@ -183,7 +183,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b>false</b>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Arial"/>
@@ -191,7 +191,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b>false</b>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Arial"/>
@@ -199,7 +199,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b>false</b>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -214,7 +214,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <i>false</i>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
@@ -229,7 +229,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b>false</b>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
@@ -259,7 +259,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b>false</b>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
@@ -269,10 +269,16 @@
   </fonts>
   <fills count="18">
     <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="none">
+        <fgColor/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125">
+        <fgColor/>
+        <bgColor/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -384,35 +390,35 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
@@ -420,36 +426,36 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color auto="true"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,44 +718,44 @@
     </xf>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="justify" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -805,7 +811,7 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
     <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
